--- a/documentacao/Tecnologia da Informação/Metodologia Scrum.xlsx
+++ b/documentacao/Tecnologia da Informação/Metodologia Scrum.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\Repositorios\sdpiar\documentacao\Tecnologia da Informação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93033F4E-7E54-480C-AA7D-C245557D64FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Visão Geral - RFs e RNFs" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint Backlog v1" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint Backlog v2" sheetId="4" r:id="rId4"/>
-    <sheet name="Gestão de Riscos" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint Backlog 3" sheetId="6" r:id="rId5"/>
+    <sheet name="Sprint Backlog 4" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="152">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -81,9 +83,6 @@
     <t>Página dizendo um pouco mais sobre a empresa</t>
   </si>
   <si>
-    <t>o que a empresa faz, como foi fundada, etc</t>
-  </si>
-  <si>
     <t>Página dizendo qual tipo de público a empresa atende</t>
   </si>
   <si>
@@ -441,69 +440,6 @@
     <t>Planilha de BackLog  /  Planilha de Sprints</t>
   </si>
   <si>
-    <t>Probabilidade</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pouco Provável (1)</t>
-  </si>
-  <si>
-    <t>Provável (2)</t>
-  </si>
-  <si>
-    <t>Impacto</t>
-  </si>
-  <si>
-    <t>Alto (3)</t>
-  </si>
-  <si>
-    <t>Baixo (1)</t>
-  </si>
-  <si>
-    <t>Fator de Risco</t>
-  </si>
-  <si>
-    <t>Ação</t>
-  </si>
-  <si>
-    <t>Aceitar</t>
-  </si>
-  <si>
-    <t>Eliminar</t>
-  </si>
-  <si>
-    <t>Mitigar</t>
-  </si>
-  <si>
-    <t>Como?</t>
-  </si>
-  <si>
-    <t>Nosso grupo tem a quantidade mínima de pessoas, uma a menos faria diferença</t>
-  </si>
-  <si>
-    <t>Caso alguém se atrase da entrega de alguma atividade, a mesma será transferida para outra pessoa</t>
-  </si>
-  <si>
-    <t>Sempre que alguém for ligar o arduíno conferir com outro integrante do grupo</t>
-  </si>
-  <si>
-    <t>Não temos controle sobre a rede da escola</t>
-  </si>
-  <si>
-    <t>Remarcar uma nova data para a renião perdida</t>
-  </si>
-  <si>
-    <t>Prazo</t>
-  </si>
-  <si>
-    <t>Imediato</t>
-  </si>
-  <si>
-    <t>1 Dia</t>
-  </si>
-  <si>
     <t>Armazenar os dados coletados da temperatura e umidade</t>
   </si>
   <si>
@@ -538,12 +474,24 @@
   </si>
   <si>
     <t>Armazenar os dados dos usuários no banco de dados</t>
+  </si>
+  <si>
+    <t>Montar campo de descrição da atividade da empresa</t>
+  </si>
+  <si>
+    <t>Montar campo de descrição da atividade da empresa ; Montar organograma da equipe</t>
+  </si>
+  <si>
+    <t>Montar organograma da equipe</t>
+  </si>
+  <si>
+    <t>Requisito Funcional / Não Funcional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,7 +509,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,18 +573,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAFA58"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -851,132 +787,116 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1297,11 +1217,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,13 +1233,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1430,13 +1350,13 @@
       <c r="E8" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1469,7 +1389,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1477,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="16">
         <v>2</v>
@@ -1486,7 +1406,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1494,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="16">
         <v>3</v>
@@ -1503,7 +1423,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1511,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="16">
         <v>3</v>
@@ -1520,7 +1440,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1547,11 +1467,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,26 +1481,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -1591,7 +1511,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -1602,159 +1522,159 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1764,13 +1684,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1779,13 +1699,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -1794,13 +1714,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1809,13 +1729,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -1824,13 +1744,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1838,32 +1758,32 @@
       <c r="G27" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -1872,13 +1792,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -1887,13 +1807,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1902,13 +1822,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -1917,13 +1837,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -1932,13 +1852,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -1947,13 +1867,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -1962,13 +1882,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1977,13 +1897,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -1992,13 +1912,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -2007,13 +1927,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -2033,32 +1953,32 @@
       <c r="G43" s="7"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -2067,13 +1987,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
@@ -2087,32 +2007,32 @@
       <c r="G49" s="11"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
@@ -2122,13 +2042,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
@@ -2158,447 +2078,488 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:K17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="40" t="s">
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
+      <c r="C5" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>2</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>3</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
       <c r="O7" s="41"/>
       <c r="P7" s="41"/>
-      <c r="Q7" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
+      <c r="Q7" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>4</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
+      <c r="C9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
       <c r="L9" s="41"/>
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
       <c r="O9" s="41"/>
       <c r="P9" s="41"/>
-      <c r="Q9" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
+      <c r="Q9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>5</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
       <c r="O10" s="41"/>
       <c r="P10" s="41"/>
-      <c r="Q10" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
+      <c r="Q10" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>6</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
       <c r="L11" s="41"/>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
       <c r="O11" s="41"/>
       <c r="P11" s="41"/>
-      <c r="Q11" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
+      <c r="Q11" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="23"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
         <v>7</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+      <c r="C13" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
-      <c r="Q13" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
+      <c r="Q13" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>8</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
       <c r="L14" s="41"/>
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
       <c r="O14" s="41"/>
       <c r="P14" s="41"/>
-      <c r="Q14" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
+      <c r="Q14" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="23"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <v>9</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="C16" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
       <c r="L16" s="41"/>
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
       <c r="O16" s="41"/>
       <c r="P16" s="41"/>
-      <c r="Q16" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
+      <c r="Q16" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
         <v>10</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
       <c r="L17" s="41"/>
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
       <c r="O17" s="41"/>
       <c r="P17" s="41"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
         <v>11</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
       <c r="L18" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C5:E7"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="C16:E18"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="C9:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="Q17:V17"/>
     <mergeCell ref="Q18:V18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:K4"/>
@@ -2615,47 +2576,6 @@
     <mergeCell ref="L11:P11"/>
     <mergeCell ref="Q10:V10"/>
     <mergeCell ref="F12:K12"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="Q17:V17"/>
-    <mergeCell ref="C9:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="C16:E18"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="C5:E7"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="L6:P6"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="L7:P7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2663,21 +2583,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B4:AD39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>107</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>108</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
@@ -2685,20 +2605,20 @@
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
       <c r="I4" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L4" s="41"/>
       <c r="M4" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N4" s="41"/>
       <c r="O4" s="41"/>
       <c r="P4" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="41"/>
       <c r="R4" s="41"/>
@@ -2706,75 +2626,75 @@
       <c r="T4" s="41"/>
       <c r="U4" s="41"/>
       <c r="V4" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="W4" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="X4" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="X4" s="18" t="s">
+      <c r="Y4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="Z4" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="Z4" s="18" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="25"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="51">
+      <c r="C6" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="48">
         <v>5</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="39">
+      <c r="J6" s="50"/>
+      <c r="K6" s="44">
         <v>20</v>
       </c>
-      <c r="L6" s="39"/>
+      <c r="L6" s="44"/>
       <c r="M6" s="41">
         <v>5</v>
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="41"/>
       <c r="P6" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q6" s="41"/>
       <c r="R6" s="41"/>
@@ -2791,23 +2711,23 @@
       <c r="B7" s="17">
         <v>2</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
       <c r="M7" s="41">
         <v>8</v>
       </c>
       <c r="N7" s="41"/>
       <c r="O7" s="41"/>
       <c r="P7" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="41"/>
       <c r="R7" s="41"/>
@@ -2824,23 +2744,23 @@
       <c r="B8" s="17">
         <v>3</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="41">
         <v>7</v>
       </c>
       <c r="N8" s="41"/>
       <c r="O8" s="41"/>
       <c r="P8" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="41"/>
       <c r="R8" s="41"/>
@@ -2855,25 +2775,25 @@
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="25"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
@@ -2884,29 +2804,29 @@
       <c r="B10" s="17">
         <v>4</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="51">
+      <c r="C10" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="48">
         <v>4</v>
       </c>
-      <c r="J10" s="53"/>
-      <c r="K10" s="39">
+      <c r="J10" s="50"/>
+      <c r="K10" s="44">
         <v>10</v>
       </c>
-      <c r="L10" s="39"/>
+      <c r="L10" s="44"/>
       <c r="M10" s="41">
         <v>2</v>
       </c>
       <c r="N10" s="41"/>
       <c r="O10" s="41"/>
       <c r="P10" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q10" s="41"/>
       <c r="R10" s="41"/>
@@ -2923,23 +2843,23 @@
       <c r="B11" s="17">
         <v>5</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
       <c r="M11" s="41">
         <v>4</v>
       </c>
       <c r="N11" s="41"/>
       <c r="O11" s="41"/>
       <c r="P11" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="41"/>
       <c r="R11" s="41"/>
@@ -2956,23 +2876,23 @@
       <c r="B12" s="17">
         <v>6</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
       <c r="M12" s="41">
         <v>4</v>
       </c>
       <c r="N12" s="41"/>
       <c r="O12" s="41"/>
       <c r="P12" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q12" s="41"/>
       <c r="R12" s="41"/>
@@ -2987,25 +2907,25 @@
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -3016,29 +2936,29 @@
       <c r="B14" s="17">
         <v>7</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="48">
+        <v>5</v>
+      </c>
+      <c r="J14" s="50"/>
+      <c r="K14" s="48">
+        <v>8</v>
+      </c>
+      <c r="L14" s="50"/>
+      <c r="M14" s="57">
+        <v>4</v>
+      </c>
+      <c r="N14" s="58"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="41" t="s">
         <v>89</v>
-      </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="51">
-        <v>5</v>
-      </c>
-      <c r="J14" s="53"/>
-      <c r="K14" s="51">
-        <v>8</v>
-      </c>
-      <c r="L14" s="53"/>
-      <c r="M14" s="60">
-        <v>4</v>
-      </c>
-      <c r="N14" s="61"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="41" t="s">
-        <v>90</v>
       </c>
       <c r="Q14" s="41"/>
       <c r="R14" s="41"/>
@@ -3055,23 +2975,23 @@
       <c r="B15" s="17">
         <v>8</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="60">
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="57">
         <v>4</v>
       </c>
-      <c r="N15" s="61"/>
-      <c r="O15" s="62"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="59"/>
       <c r="P15" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q15" s="41"/>
       <c r="R15" s="41"/>
@@ -3086,25 +3006,25 @@
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="25"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -3115,29 +3035,29 @@
       <c r="B17" s="17">
         <v>9</v>
       </c>
-      <c r="C17" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="51">
+      <c r="C17" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="48">
         <v>3</v>
       </c>
-      <c r="J17" s="53"/>
-      <c r="K17" s="51">
+      <c r="J17" s="50"/>
+      <c r="K17" s="48">
         <v>14</v>
       </c>
-      <c r="L17" s="53"/>
-      <c r="M17" s="60">
+      <c r="L17" s="50"/>
+      <c r="M17" s="57">
         <v>6</v>
       </c>
-      <c r="N17" s="61"/>
-      <c r="O17" s="62"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="59"/>
       <c r="P17" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="41"/>
       <c r="R17" s="41"/>
@@ -3154,23 +3074,23 @@
       <c r="B18" s="17">
         <v>10</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="60">
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="57">
         <v>2</v>
       </c>
-      <c r="N18" s="61"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="66" t="s">
-        <v>92</v>
+      <c r="N18" s="58"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="60" t="s">
+        <v>91</v>
       </c>
       <c r="Q18" s="41"/>
       <c r="R18" s="41"/>
@@ -3187,23 +3107,23 @@
       <c r="B19" s="17">
         <v>11</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="60">
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="57">
         <v>6</v>
       </c>
-      <c r="N19" s="61"/>
-      <c r="O19" s="62"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="59"/>
       <c r="P19" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="41"/>
       <c r="R19" s="41"/>
@@ -3224,10 +3144,10 @@
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="41" t="s">
         <v>107</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>108</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
@@ -3235,26 +3155,26 @@
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
       <c r="I24" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J24" s="41"/>
       <c r="K24" s="41"/>
       <c r="L24" s="41"/>
       <c r="M24" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N24" s="41"/>
       <c r="O24" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P24" s="41"/>
       <c r="Q24" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R24" s="41"/>
       <c r="S24" s="41"/>
       <c r="T24" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U24" s="41"/>
       <c r="V24" s="41"/>
@@ -3262,85 +3182,85 @@
       <c r="X24" s="41"/>
       <c r="Y24" s="41"/>
       <c r="Z24" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA24" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="AA24" s="20" t="s">
+      <c r="AB24" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="AB24" s="20" t="s">
+      <c r="AC24" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="AC24" s="20" t="s">
+      <c r="AD24" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="AD24" s="20" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25" s="25"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="43"/>
-      <c r="AC25" s="43"/>
-      <c r="AD25" s="43"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" s="19">
         <v>1</v>
       </c>
-      <c r="C26" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="51">
+      <c r="C26" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="48">
         <v>5</v>
       </c>
-      <c r="N26" s="53"/>
-      <c r="O26" s="39">
+      <c r="N26" s="50"/>
+      <c r="O26" s="44">
         <v>20</v>
       </c>
-      <c r="P26" s="39"/>
+      <c r="P26" s="44"/>
       <c r="Q26" s="41">
         <v>5</v>
       </c>
       <c r="R26" s="41"/>
       <c r="S26" s="41"/>
       <c r="T26" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U26" s="41"/>
       <c r="V26" s="41"/>
@@ -3357,27 +3277,27 @@
       <c r="B27" s="19">
         <v>2</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
       <c r="Q27" s="41">
         <v>8</v>
       </c>
       <c r="R27" s="41"/>
       <c r="S27" s="41"/>
       <c r="T27" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U27" s="41"/>
       <c r="V27" s="41"/>
@@ -3394,27 +3314,27 @@
       <c r="B28" s="19">
         <v>3</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
       <c r="Q28" s="41">
         <v>7</v>
       </c>
       <c r="R28" s="41"/>
       <c r="S28" s="41"/>
       <c r="T28" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U28" s="41"/>
       <c r="V28" s="41"/>
@@ -3429,29 +3349,29 @@
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B29" s="25"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
@@ -3462,35 +3382,35 @@
       <c r="B30" s="19">
         <v>4</v>
       </c>
-      <c r="C30" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="51">
+      <c r="C30" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="48">
         <v>4</v>
       </c>
-      <c r="N30" s="53"/>
-      <c r="O30" s="39">
+      <c r="N30" s="50"/>
+      <c r="O30" s="44">
         <v>10</v>
       </c>
-      <c r="P30" s="39"/>
+      <c r="P30" s="44"/>
       <c r="Q30" s="41">
         <v>2</v>
       </c>
       <c r="R30" s="41"/>
       <c r="S30" s="41"/>
       <c r="T30" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U30" s="41"/>
       <c r="V30" s="41"/>
@@ -3507,27 +3427,27 @@
       <c r="B31" s="19">
         <v>5</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
       <c r="Q31" s="41">
         <v>4</v>
       </c>
       <c r="R31" s="41"/>
       <c r="S31" s="41"/>
       <c r="T31" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U31" s="41"/>
       <c r="V31" s="41"/>
@@ -3544,27 +3464,27 @@
       <c r="B32" s="19">
         <v>6</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
       <c r="Q32" s="41">
         <v>4</v>
       </c>
       <c r="R32" s="41"/>
       <c r="S32" s="41"/>
       <c r="T32" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U32" s="41"/>
       <c r="V32" s="41"/>
@@ -3579,29 +3499,29 @@
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B33" s="25"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="64"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="43"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="63"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -3612,35 +3532,35 @@
       <c r="B34" s="19">
         <v>7</v>
       </c>
-      <c r="C34" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="51">
+      <c r="C34" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="48">
         <v>5</v>
       </c>
-      <c r="N34" s="53"/>
-      <c r="O34" s="51">
+      <c r="N34" s="50"/>
+      <c r="O34" s="48">
         <v>8</v>
       </c>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="60">
+      <c r="P34" s="50"/>
+      <c r="Q34" s="57">
         <v>4</v>
       </c>
-      <c r="R34" s="61"/>
-      <c r="S34" s="62"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="59"/>
       <c r="T34" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U34" s="41"/>
       <c r="V34" s="41"/>
@@ -3657,27 +3577,27 @@
       <c r="B35" s="19">
         <v>8</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="60">
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="57">
         <v>4</v>
       </c>
-      <c r="R35" s="61"/>
-      <c r="S35" s="62"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="59"/>
       <c r="T35" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U35" s="41"/>
       <c r="V35" s="41"/>
@@ -3692,29 +3612,29 @@
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B36" s="25"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="43"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="46"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
@@ -3725,35 +3645,35 @@
       <c r="B37" s="19">
         <v>9</v>
       </c>
-      <c r="C37" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="51">
+      <c r="C37" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="48">
         <v>3</v>
       </c>
-      <c r="N37" s="53"/>
-      <c r="O37" s="51">
+      <c r="N37" s="50"/>
+      <c r="O37" s="48">
         <v>14</v>
       </c>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="60">
+      <c r="P37" s="50"/>
+      <c r="Q37" s="57">
         <v>6</v>
       </c>
-      <c r="R37" s="61"/>
-      <c r="S37" s="62"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="59"/>
       <c r="T37" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U37" s="41"/>
       <c r="V37" s="41"/>
@@ -3770,27 +3690,27 @@
       <c r="B38" s="19">
         <v>10</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="60">
+      <c r="C38" s="51"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="57">
         <v>2</v>
       </c>
-      <c r="R38" s="61"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="66" t="s">
-        <v>92</v>
+      <c r="R38" s="58"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="60" t="s">
+        <v>91</v>
       </c>
       <c r="U38" s="41"/>
       <c r="V38" s="41"/>
@@ -3807,27 +3727,27 @@
       <c r="B39" s="19">
         <v>11</v>
       </c>
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="60">
+      <c r="C39" s="54"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="57">
         <v>6</v>
       </c>
-      <c r="R39" s="61"/>
-      <c r="S39" s="62"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="59"/>
       <c r="T39" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U39" s="41"/>
       <c r="V39" s="41"/>
@@ -3842,27 +3762,90 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="C37:H39"/>
-    <mergeCell ref="M37:N39"/>
-    <mergeCell ref="O37:P39"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:Y38"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:Y39"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="C34:H35"/>
-    <mergeCell ref="M34:N35"/>
-    <mergeCell ref="O34:P35"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L32"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L35"/>
+    <mergeCell ref="I37:L39"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="C17:H19"/>
+    <mergeCell ref="K17:L19"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="I6:J8"/>
+    <mergeCell ref="I10:J12"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="I17:J19"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P17:U17"/>
+    <mergeCell ref="P18:U18"/>
+    <mergeCell ref="P19:U19"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P11:U11"/>
+    <mergeCell ref="P12:U12"/>
+    <mergeCell ref="P13:U13"/>
+    <mergeCell ref="P16:U16"/>
+    <mergeCell ref="P15:U15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:Y24"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C6:H8"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K10:L12"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P14:U14"/>
+    <mergeCell ref="C14:H15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="C26:H28"/>
+    <mergeCell ref="M26:N28"/>
+    <mergeCell ref="O26:P28"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:Y28"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:Y25"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L8"/>
@@ -3887,339 +3870,435 @@
     <mergeCell ref="T29:Y29"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="M24:N24"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="C26:H28"/>
-    <mergeCell ref="M26:N28"/>
-    <mergeCell ref="O26:P28"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:Y28"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="T25:Y25"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:Y24"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C6:H8"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K10:L12"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P14:U14"/>
-    <mergeCell ref="C14:H15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P16:U16"/>
-    <mergeCell ref="P15:U15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="P9:U9"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="P10:U10"/>
-    <mergeCell ref="C17:H19"/>
-    <mergeCell ref="K17:L19"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="I6:J8"/>
-    <mergeCell ref="I10:J12"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="I17:J19"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P17:U17"/>
-    <mergeCell ref="P18:U18"/>
-    <mergeCell ref="P19:U19"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P11:U11"/>
-    <mergeCell ref="P12:U12"/>
-    <mergeCell ref="P13:U13"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L32"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L35"/>
-    <mergeCell ref="I37:L39"/>
-    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="C34:H35"/>
+    <mergeCell ref="M34:N35"/>
+    <mergeCell ref="O34:P35"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="C37:H39"/>
+    <mergeCell ref="M37:N39"/>
+    <mergeCell ref="O37:P39"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:Y39"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:S9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF83C56-7F97-4A1A-962B-61B130000F46}">
+  <dimension ref="B2:AD5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="I3" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="68">
-        <v>3</v>
-      </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="I5" s="70" t="s">
+    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA2" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB2" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC2" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD2" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B3" s="25"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B4" s="28">
+        <v>1</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="48">
+        <v>5</v>
+      </c>
+      <c r="N4" s="50"/>
+      <c r="O4" s="44">
+        <v>20</v>
+      </c>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="41">
+        <v>5</v>
+      </c>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="24"/>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B313C30B-C167-47BC-8AD3-08BB0A5888B7}">
+  <dimension ref="B2:AD5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA2" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB2" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC2" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD2" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B3" s="25"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B4" s="28">
+        <v>1</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="48">
+        <v>5</v>
+      </c>
+      <c r="N4" s="50"/>
+      <c r="O4" s="44">
+        <v>20</v>
+      </c>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="41">
+        <v>5</v>
+      </c>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="30"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="68">
-        <v>3</v>
-      </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="I6" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="30" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="46">
-        <v>2</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="I7" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="30" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="68">
-        <v>3</v>
-      </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="I8" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="30"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="68">
-        <v>3</v>
-      </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="I9" s="70" t="s">
-        <v>154</v>
-      </c>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="30" t="s">
-        <v>157</v>
-      </c>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="24"/>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="I3:R4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
+  <mergeCells count="25">
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:Y2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
